--- a/fuentes/contenidos/grado10/guion02/SolicitudGraficaCN_10_02_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion02/SolicitudGraficaCN_10_02_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PLANETA 10 Y 11\CN_10_02_CO\CN_10_02_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\CienciasNaturales\fuentes\contenidos\grado10\guion02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="8340" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16815" windowHeight="8340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="201">
   <si>
     <t>Fecha:</t>
   </si>
@@ -570,18 +570,6 @@
     <t>IMG15</t>
   </si>
   <si>
-    <t>IMG16</t>
-  </si>
-  <si>
-    <t>IMG17</t>
-  </si>
-  <si>
-    <t>IMG18</t>
-  </si>
-  <si>
-    <t>IMG19</t>
-  </si>
-  <si>
     <t xml:space="preserve">4° ESO/ Física y química/La cinemática/El movimiento/ </t>
   </si>
   <si>
@@ -597,25 +585,10 @@
     <t>Ilustración</t>
   </si>
   <si>
-    <t>(ver cuaderno de estudio pág. 2)</t>
-  </si>
-  <si>
     <t>Imagen que muestra el vector desplazamiento respecto a un sistema de referencia fijo.</t>
   </si>
   <si>
-    <t>(ver cuaderno de estudio pág. 4)</t>
-  </si>
-  <si>
-    <t>(ver cuaderno de estudio pág. 6)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vector velocidad opuesto al vector aceleración en un movimiento hacia la izquierda. </t>
-  </si>
-  <si>
-    <t>(ver cuaderno de estudio pág. 7)</t>
-  </si>
-  <si>
-    <t>(ver cuaderno de estudio pág.11)</t>
   </si>
   <si>
     <t>Función lineal (Vista desde la mátematica)</t>
@@ -647,9 +620,6 @@
     </r>
   </si>
   <si>
-    <t>(ver cuaderno de estudio pág.22)</t>
-  </si>
-  <si>
     <t>Función cuadrática (Vista desde la matemática)</t>
   </si>
   <si>
@@ -668,15 +638,9 @@
     <t>http://upload.wikimedia.org/wikipedia/commons/0/02/Falling_ball.jpg</t>
   </si>
   <si>
-    <t>http://upload.wikimedia.org/wikipedia/en/1/1a/Bill's_Bungy_Jump.jpg</t>
-  </si>
-  <si>
     <t>Salto en caída libre, bungee jumping</t>
   </si>
   <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/8/8f/5_ball_juggling.jpg</t>
-  </si>
-  <si>
     <t>Lanzamiento vertical de una pelota.</t>
   </si>
   <si>
@@ -690,19 +654,6 @@
   </si>
   <si>
     <t>Poner flechas para indicar dirección positiva de los ejes</t>
-  </si>
-  <si>
-    <t>(ver cuaderno de estudio pág.38)</t>
-  </si>
-  <si>
-    <t>(ver cuaderno de estudio pág.40)</t>
-  </si>
-  <si>
-    <t>Recurso aprovechado imagen para ingrresar en ka ficha del estudiante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movimiento caída libre
-</t>
   </si>
   <si>
     <t>OJO, en la imagen poner coma (,) a los decimales</t>
@@ -766,11 +717,13 @@
     <font>
       <sz val="10"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -792,11 +745,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1704,6 +1659,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="51" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1788,15 +1752,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="51" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -3105,8 +3060,8 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3144,14 +3099,14 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="F2" s="87" t="s">
+      <c r="D2" s="98"/>
+      <c r="F2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="88"/>
+      <c r="G2" s="91"/>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="16"/>
@@ -3161,14 +3116,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="96">
+      <c r="C3" s="99">
         <v>10</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="F3" s="89">
+      <c r="D3" s="100"/>
+      <c r="F3" s="92">
         <v>42065</v>
       </c>
-      <c r="G3" s="90"/>
+      <c r="G3" s="93"/>
       <c r="H3" s="49"/>
       <c r="I3" s="49"/>
       <c r="J3" s="16"/>
@@ -3178,10 +3133,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="97"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="5"/>
       <c r="F4" s="48" t="s">
         <v>55</v>
@@ -3199,10 +3154,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="100"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="5"/>
       <c r="F5" s="46" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -3250,12 +3205,12 @@
       <c r="B8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="91" t="s">
+      <c r="F8" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="93"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="96"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -3299,7 +3254,7 @@
         <v>7</v>
       </c>
       <c r="L9" s="80" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3307,7 +3262,7 @@
         <v>142</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C10" s="73" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -3336,7 +3291,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J10" s="79" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K10" s="77"/>
       <c r="L10" s="15"/>
@@ -3346,14 +3301,14 @@
         <v>150</v>
       </c>
       <c r="B11" s="84" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C11" s="73" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>149</v>
@@ -3375,10 +3330,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J11" s="79" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K11" s="81" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L11" s="82"/>
     </row>
@@ -3387,14 +3342,14 @@
         <v>152</v>
       </c>
       <c r="B12" s="84" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C12" s="73" t="str">
         <f t="shared" ref="C12:C19" si="2">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>149</v>
@@ -3416,10 +3371,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J12" s="79" t="s">
-        <v>175</v>
-      </c>
-      <c r="K12" s="119" t="s">
-        <v>206</v>
+        <v>170</v>
+      </c>
+      <c r="K12" s="87" t="s">
+        <v>190</v>
       </c>
       <c r="L12" s="15"/>
     </row>
@@ -3428,14 +3383,14 @@
         <v>153</v>
       </c>
       <c r="B13" s="84" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C13" s="73" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>149</v>
@@ -3457,10 +3412,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J13" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="K13" s="120" t="s">
-        <v>207</v>
+        <v>171</v>
+      </c>
+      <c r="K13" s="88" t="s">
+        <v>191</v>
       </c>
       <c r="L13" s="15"/>
     </row>
@@ -3469,14 +3424,14 @@
         <v>154</v>
       </c>
       <c r="B14" s="84" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C14" s="73" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>149</v>
@@ -3498,10 +3453,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J14" s="79" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K14" s="81" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="L14" s="15"/>
     </row>
@@ -3510,14 +3465,14 @@
         <v>155</v>
       </c>
       <c r="B15" s="84" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C15" s="73" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>149</v>
@@ -3539,10 +3494,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J15" s="79" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="K15" s="81" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="L15" s="83"/>
     </row>
@@ -3551,14 +3506,14 @@
         <v>156</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C16" s="73" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>149</v>
@@ -3580,10 +3535,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J16" s="79" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="K16" s="81" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="L16" s="15"/>
     </row>
@@ -3592,14 +3547,14 @@
         <v>157</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C17" s="73" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>149</v>
@@ -3621,7 +3576,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J17" s="79" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="K17" s="20"/>
       <c r="L17" s="15"/>
@@ -3631,14 +3586,14 @@
         <v>158</v>
       </c>
       <c r="B18" s="84" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C18" s="73" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>149</v>
@@ -3660,10 +3615,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J18" s="79" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="K18" s="81" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="L18" s="83"/>
     </row>
@@ -3672,14 +3627,14 @@
         <v>159</v>
       </c>
       <c r="B19" s="84" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C19" s="73" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>149</v>
@@ -3701,10 +3656,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J19" s="79" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K19" s="84" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="L19" s="15"/>
     </row>
@@ -3713,14 +3668,14 @@
         <v>160</v>
       </c>
       <c r="B20" s="84" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C20" s="73" t="str">
         <f>IF(OR(B19&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>149</v>
@@ -3742,10 +3697,10 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J20" s="86" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="K20" s="85" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="L20" s="15"/>
     </row>
@@ -3754,7 +3709,7 @@
         <v>161</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C21" s="73" t="str">
         <f>IF(OR(B21&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -3783,7 +3738,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J21" s="79" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="K21" s="19"/>
       <c r="L21" s="15"/>
@@ -3792,7 +3747,7 @@
       <c r="A22" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="B22" s="121">
+      <c r="B22" s="89">
         <v>397030705</v>
       </c>
       <c r="C22" s="73" t="str">
@@ -3822,7 +3777,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J22" s="79" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="15"/>
@@ -3853,7 +3808,7 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H23" s="14" t="str">
-        <f t="shared" ref="H23:H24" si="4">IF(AND(I23&lt;&gt;"",I23&lt;&gt;0),IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),CONCATENATE($C$7,"_",$A23,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H23" si="4">IF(AND(I23&lt;&gt;"",I23&lt;&gt;0),IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),CONCATENATE($C$7,"_",$A23,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CN_10_02_CO_IMG14_zoom</v>
       </c>
       <c r="I23" s="14" t="str">
@@ -3861,7 +3816,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J23" s="79" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23"/>
@@ -3871,14 +3826,14 @@
         <v>164</v>
       </c>
       <c r="B24" s="84" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C24" s="73" t="str">
         <f>IF(OR(B24&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>149</v>
@@ -3892,16 +3847,16 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H24" s="74" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>123</v>
       </c>
       <c r="J24" s="79" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="K24" s="84" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="L24" s="15"/>
     </row>
@@ -6043,25 +5998,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="105"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="108"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="40"/>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -6069,11 +6024,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="40"/>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
       <c r="F3" s="41"/>
       <c r="H3" s="31" t="s">
         <v>18</v>
@@ -6124,11 +6079,11 @@
       <c r="C5" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="115" t="str">
+      <c r="D5" s="118" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>CN_10_02_CO</v>
       </c>
-      <c r="E5" s="116"/>
+      <c r="E5" s="119"/>
       <c r="F5" s="41"/>
       <c r="H5" s="31" t="s">
         <v>22</v>
@@ -6173,12 +6128,12 @@
       <c r="C7" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="101" t="str">
+      <c r="D7" s="104" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_CN_10_02_CO.xls</v>
       </c>
-      <c r="E7" s="101"/>
-      <c r="F7" s="102"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="105"/>
       <c r="H7" s="31" t="s">
         <v>24</v>
       </c>
@@ -6272,14 +6227,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="108"/>
       <c r="I13" s="31" t="s">
         <v>33</v>
       </c>
@@ -6312,12 +6267,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="40"/>
-      <c r="C15" s="106" t="s">
+      <c r="C15" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="108"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="111"/>
       <c r="J15" s="31">
         <v>12</v>
       </c>
@@ -6357,12 +6312,12 @@
       <c r="C17" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="109" t="str">
+      <c r="D17" s="112" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>CN_10_02_REC10</v>
       </c>
-      <c r="E17" s="110"/>
-      <c r="F17" s="111"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="114"/>
       <c r="J17" s="31">
         <v>14</v>
       </c>
@@ -6378,12 +6333,12 @@
       <c r="C18" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="101" t="str">
+      <c r="D18" s="104" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_CN_10_02_REC10.xls</v>
       </c>
-      <c r="E18" s="101"/>
-      <c r="F18" s="102"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="105"/>
       <c r="J18" s="31">
         <v>15</v>
       </c>
@@ -6775,41 +6730,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="G1" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
       <c r="H2" s="50" t="s">
         <v>65</v>
       </c>
